--- a/data/total/Y9999年.xlsx
+++ b/data/total/Y9999年.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEJ Pro\TejPro\DataExport\#1230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\#tmp\python-\python-webstorm-TEJ-Banking-and-Finance\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83065CCC-20F3-43FF-8117-EFB07464E2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FA42E-5ABA-47F5-BE7C-461C9D1C7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17196" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>年月</t>
   </si>
@@ -34,9 +34,6 @@
     <t>最低價(元)</t>
   </si>
   <si>
-    <t>收盤價(元)</t>
-  </si>
-  <si>
     <t>成交量(百萬股)_年</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>該年結束日</t>
   </si>
   <si>
-    <t>2022/12</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -230,6 +224,10 @@
   </si>
   <si>
     <t>2003/12/31</t>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +257,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -291,6 +296,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,38 +587,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,82 +631,82 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44896</v>
       </c>
       <c r="B2" s="3">
         <v>18260.23</v>
@@ -728,10 +739,10 @@
         <v>44060</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3">
         <v>-25.360299999999999</v>
@@ -746,13 +757,13 @@
         <v>485326</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3">
         <v>10.67</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U2" s="3">
         <v>1.81</v>
@@ -761,7 +772,7 @@
         <v>1.07</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X2" s="3">
         <v>4.84</v>
@@ -773,15 +784,15 @@
         <v>32.878799999999998</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>14720.25</v>
@@ -814,10 +825,10 @@
         <v>55843</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3">
         <v>21.238600000000002</v>
@@ -832,13 +843,13 @@
         <v>678825</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" s="3">
         <v>15.68</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U3" s="3">
         <v>2.39</v>
@@ -847,7 +858,7 @@
         <v>1.55</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X3" s="3">
         <v>2.52</v>
@@ -859,15 +870,15 @@
         <v>24.238900000000001</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>12026.5</v>
@@ -900,10 +911,10 @@
         <v>44607</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3">
         <v>20.539000000000001</v>
@@ -918,13 +929,13 @@
         <v>398202</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S4" s="3">
         <v>23.35</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" s="3">
         <v>2.17</v>
@@ -933,7 +944,7 @@
         <v>1.43</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X4" s="3">
         <v>2.75</v>
@@ -945,15 +956,15 @@
         <v>51.982599999999998</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>9725.27</v>
@@ -986,10 +997,10 @@
         <v>36176</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3">
         <v>20.972100000000001</v>
@@ -1004,13 +1015,13 @@
         <v>240893</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S5" s="3">
         <v>20.190000000000001</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U5" s="3">
         <v>1.81</v>
@@ -1019,7 +1030,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X5" s="3">
         <v>3.62</v>
@@ -1031,15 +1042,15 @@
         <v>28.852699999999999</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>10664.82</v>
@@ -1072,10 +1083,10 @@
         <v>29070</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3">
         <v>-8.9941999999999993</v>
@@ -1090,13 +1101,13 @@
         <v>261725</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S6" s="3">
         <v>14.2</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U6" s="3">
         <v>1.52</v>
@@ -1105,7 +1116,7 @@
         <v>0.93</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X6" s="3">
         <v>4.5</v>
@@ -1117,15 +1128,15 @@
         <v>17.5657</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
         <v>9252.56</v>
@@ -1158,10 +1169,10 @@
         <v>31763</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3">
         <v>13.9887</v>
@@ -1176,13 +1187,13 @@
         <v>230083</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" s="3">
         <v>16.059999999999999</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U7" s="3">
         <v>1.77</v>
@@ -1191,7 +1202,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X7" s="3">
         <v>3.72</v>
@@ -1203,15 +1214,15 @@
         <v>17.795400000000001</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
         <v>8315.7900000000009</v>
@@ -1244,10 +1255,10 @@
         <v>27201</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" s="3">
         <v>10.4171</v>
@@ -1262,13 +1273,13 @@
         <v>186284</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S8" s="3">
         <v>16.64</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U8" s="3">
         <v>1.61</v>
@@ -1277,7 +1288,7 @@
         <v>0.99</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X8" s="3">
         <v>3.89</v>
@@ -1289,15 +1300,15 @@
         <v>21.617100000000001</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>9292.31</v>
@@ -1330,10 +1341,10 @@
         <v>24410</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="3">
         <v>-10.9964</v>
@@ -1348,13 +1359,13 @@
         <v>211869</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9" s="3">
         <v>13.93</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U9" s="3">
         <v>1.49</v>
@@ -1363,7 +1374,7 @@
         <v>0.87</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X9" s="3">
         <v>4.0599999999999996</v>
@@ -1375,15 +1386,15 @@
         <v>30.204499999999999</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>8618.6</v>
@@ -1416,10 +1427,10 @@
         <v>26893</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10" s="3">
         <v>7.7694999999999999</v>
@@ -1434,13 +1445,13 @@
         <v>208294</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S10" s="3">
         <v>15.87</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U10" s="3">
         <v>1.75</v>
@@ -1449,7 +1460,7 @@
         <v>0.99</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X10" s="3">
         <v>3.01</v>
@@ -1461,15 +1472,15 @@
         <v>15.8302</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>7738.05</v>
@@ -1502,10 +1513,10 @@
         <v>24338</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" s="3">
         <v>11.1944</v>
@@ -1520,13 +1531,13 @@
         <v>184235</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" s="3">
         <v>18.84</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U11" s="3">
         <v>1.79</v>
@@ -1535,7 +1546,7 @@
         <v>0.94</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X11" s="3">
         <v>2.68</v>
@@ -1547,15 +1558,15 @@
         <v>13.5589</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
         <v>7071.35</v>
@@ -1588,10 +1599,10 @@
         <v>21209</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N12" s="3">
         <v>8.5000999999999998</v>
@@ -1606,13 +1617,13 @@
         <v>183835</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S12" s="3">
         <v>23.63</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U12" s="3">
         <v>1.67</v>
@@ -1621,7 +1632,7 @@
         <v>1.03</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X12" s="3">
         <v>3.42</v>
@@ -1633,15 +1644,15 @@
         <v>18.571200000000001</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>9039.6299999999992</v>
@@ -1674,10 +1685,10 @@
         <v>19118</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" s="3">
         <v>-23.800999999999998</v>
@@ -1692,13 +1703,13 @@
         <v>220104</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S13" s="3">
         <v>16.25</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U13" s="3">
         <v>1.56</v>
@@ -1707,7 +1718,7 @@
         <v>0.93</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X13" s="3">
         <v>4.66</v>
@@ -1719,15 +1730,15 @@
         <v>29.1065</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3">
         <v>8222.42</v>
@@ -1760,10 +1771,10 @@
         <v>23595</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N14" s="3">
         <v>9.1480999999999995</v>
@@ -1778,13 +1789,13 @@
         <v>244785</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S14" s="3">
         <v>16.489999999999998</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U14" s="3">
         <v>1.98</v>
@@ -1793,7 +1804,7 @@
         <v>1.23</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X14" s="3">
         <v>3.04</v>
@@ -1805,15 +1816,15 @@
         <v>23.912500000000001</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>4725.26</v>
@@ -1846,10 +1857,10 @@
         <v>21041</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" s="3">
         <v>57.853700000000003</v>
@@ -1864,13 +1875,13 @@
         <v>279947</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15" s="3">
         <v>83.13</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U15" s="3">
         <v>1.93</v>
@@ -1879,7 +1890,7 @@
         <v>1.39</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X15" s="3">
         <v>2.25</v>
@@ -1891,15 +1902,15 @@
         <v>87.658799999999999</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>8491.57</v>
@@ -1932,10 +1943,10 @@
         <v>11685</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" s="3">
         <v>-61.665900000000001</v>
@@ -1950,13 +1961,13 @@
         <v>230436</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S16" s="3">
         <v>9.5</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U16" s="3">
         <v>1.1000000000000001</v>
@@ -1965,7 +1976,7 @@
         <v>0.71</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X16" s="3">
         <v>8.11</v>
@@ -1977,15 +1988,15 @@
         <v>62.947800000000001</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>7871.41</v>
@@ -2018,10 +2029,10 @@
         <v>20615</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="3">
         <v>8.3644999999999996</v>
@@ -2036,13 +2047,13 @@
         <v>233783</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S17" s="3">
         <v>16.02</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U17" s="3">
         <v>1.97</v>
@@ -2051,7 +2062,7 @@
         <v>1.42</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X17" s="3">
         <v>3.51</v>
@@ -2063,15 +2074,15 @@
         <v>32.6389</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3">
         <v>6457.61</v>
@@ -2104,10 +2115,10 @@
         <v>19409</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18" s="3">
         <v>17.794899999999998</v>
@@ -2122,13 +2133,13 @@
         <v>175094</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S18" s="3">
         <v>20.14</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U18" s="3">
         <v>1.99</v>
@@ -2137,7 +2148,7 @@
         <v>1.51</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X18" s="3">
         <v>3.31</v>
@@ -2149,15 +2160,15 @@
         <v>24.299700000000001</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
         <v>6166.39</v>
@@ -2190,10 +2201,10 @@
         <v>15566</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19" s="3">
         <v>6.4436999999999998</v>
@@ -2208,13 +2219,13 @@
         <v>143613</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" s="3">
         <v>17.89</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U19" s="3">
         <v>1.76</v>
@@ -2223,7 +2234,7 @@
         <v>1.38</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X19" s="3">
         <v>3.75</v>
@@ -2235,15 +2246,15 @@
         <v>16.8536</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>5907.15</v>
@@ -2276,10 +2287,10 @@
         <v>13880</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N20" s="3">
         <v>4.1401000000000003</v>
@@ -2294,13 +2305,13 @@
         <v>183842</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" s="3">
         <v>13.25</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U20" s="3">
         <v>1.7</v>
@@ -2309,7 +2320,7 @@
         <v>1.38</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X20" s="3">
         <v>2.79</v>
@@ -2321,15 +2332,15 @@
         <v>31.913699999999999</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>4460.57</v>
@@ -2362,10 +2373,10 @@
         <v>12402</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21" s="3">
         <v>27.991900000000001</v>
@@ -2380,13 +2391,13 @@
         <v>168123</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21" s="3">
         <v>26.17</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U21" s="3">
         <v>1.83</v>
@@ -2395,7 +2406,7 @@
         <v>1.59</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X21" s="3">
         <v>1.91</v>
@@ -2407,19 +2418,18 @@
         <v>48.006599999999999</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 A3:AB21 B2:AB2 F1:AB1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>